--- a/biology/Botanique/Lindamägi/Lindamägi.xlsx
+++ b/biology/Botanique/Lindamägi/Lindamägi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lindam%C3%A4gi</t>
+          <t>Lindamägi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Colline de Linda (estonien : Lindamägi) est un parc situé  au sud-ouest de Toompea à Tallinn en Estonie[1],[2].
+La Colline de Linda (estonien : Lindamägi) est un parc situé  au sud-ouest de Toompea à Tallinn en Estonie,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lindam%C3%A4gi</t>
+          <t>Lindamägi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindamägi se situe entre Falgi tee et Hirvepark sur un ancien bastion des anciennes fortifications suédoises, dont le sommet est transformé en parc en 1862. 
-En 1920, une copie en bronze de la sculpture Linda d'August Weizenberg y est placée et donne son nom au parc le 24 mai 1939[1]. 
+En 1920, une copie en bronze de la sculpture Linda d'August Weizenberg y est placée et donne son nom au parc le 24 mai 1939. 
 La version originale en marbre de la sculpture, achevée en 1880, est située au Kumu.
-À l’automne 2007, on comptait 26 essences différentes d'arbres dans le parc, mais les arbres les plus remarquables demeurent sept tilleuls bicentenaires plantés en cercle[1].
+À l’automne 2007, on comptait 26 essences différentes d'arbres dans le parc, mais les arbres les plus remarquables demeurent sept tilleuls bicentenaires plantés en cercle.
 </t>
         </is>
       </c>
